--- a/buku-tahfidz-lengkap/versi 3 (campur tahsin)/ziyadah.xlsx
+++ b/buku-tahfidz-lengkap/versi 3 (campur tahsin)/ziyadah.xlsx
@@ -5,30 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\github\buku-tahfidz\buku-tahfidz-lengkap\versi-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\mabaiz\buku-tahfidz\buku-tahfidz-lengkap\versi 3 (campur tahsin)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDA487-49FE-4006-A5DD-9D74663C50BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEC96B-E301-4CF1-A2F7-4E65587318E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kiri" sheetId="4" r:id="rId1"/>
     <sheet name="kanan" sheetId="6" r:id="rId2"/>
     <sheet name="lengkap" sheetId="7" r:id="rId3"/>
-    <sheet name="sampah" sheetId="5" r:id="rId4"/>
+    <sheet name="tidak lancar" sheetId="8" r:id="rId4"/>
+    <sheet name="tahsin" sheetId="10" r:id="rId5"/>
+    <sheet name="sampah" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kanan!$A$1:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">kiri!$A$1:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">lengkap!$A$1:$F$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">tahsin!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'tidak lancar'!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>شهر :</t>
   </si>
@@ -100,13 +104,61 @@
   </si>
   <si>
     <t>حلقة ٦</t>
+  </si>
+  <si>
+    <t>شهر</t>
+  </si>
+  <si>
+    <t>أسبوع</t>
+  </si>
+  <si>
+    <t>صفحة</t>
+  </si>
+  <si>
+    <t>الحفظ غير المتقن</t>
+  </si>
+  <si>
+    <t>LEMBAR KONTROL TAHSINUL QURAN</t>
+  </si>
+  <si>
+    <t>MADRASAH BAITUL IZZAH</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TGL</t>
+  </si>
+  <si>
+    <t>TILAWAH QURAN</t>
+  </si>
+  <si>
+    <t>SURAH</t>
+  </si>
+  <si>
+    <t>AYAT</t>
+  </si>
+  <si>
+    <t>MODUL</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>NILAI</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>PAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +189,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,13 +285,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,6 +384,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +699,7 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -863,7 +993,7 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1223,7 +1353,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="2" sqref="A1:B1048576 C1:D1048576 E1:F1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1848,6 +1978,372 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FDCA17-A2E3-4B53-90A7-BDCD958B97B6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.85546875" style="11" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.25">
+      <c r="A1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="66" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" ht="66" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="66" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="66" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" ht="66" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="66" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="66" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="66" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6140019D-4854-4CDE-BFF4-0A8DEC1AEDAC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="11" customWidth="1"/>
+    <col min="3" max="4" width="8" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04FA41B-CE8B-45BC-933D-CDB8BF3659C5}">
   <dimension ref="A1:J5"/>
   <sheetViews>
